--- a/doc/funktionenmatrix.xlsx
+++ b/doc/funktionenmatrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t xml:space="preserve">Aufgabe</t>
   </si>
@@ -70,31 +70,34 @@
     <t xml:space="preserve">Login möglich, sowie Registrierung</t>
   </si>
   <si>
+    <t xml:space="preserve">FH … Fabian Häubel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bücher Infos, Genres einbinden, Autoren einbinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bücher Infos, Genres und Autoren abrufbar machen über JavaFX Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suche einbinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suche nach Autoren, Buch Infos und Genres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buchtexte einbinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhalt der Bücher verfügbar und lesbar machen </t>
+  </si>
+  <si>
     <t xml:space="preserve">O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FH … Fabian Häubel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bücher Infos, Genres einbinden, Autoren einbinden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bücher Infos, Genres und Autoren abrufbar machen über JavaFX Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suche einbinden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suche nach Autoren, Buch Infos und Genres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buchtexte einbinden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inhalt der Bücher verfügbar und lesbar machen </t>
   </si>
   <si>
     <t xml:space="preserve">Zahlungssystem</t>
@@ -386,16 +389,16 @@
   <dimension ref="A1:H374"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -469,28 +472,28 @@
         <v>43935</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>43949</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>20</v>
@@ -507,7 +510,7 @@
         <v>43959</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>12</v>
@@ -524,7 +527,7 @@
         <v>43971</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>20</v>
@@ -532,16 +535,16 @@
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>43983</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>8</v>
@@ -549,19 +552,19 @@
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>43992</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1665,7 +1668,7 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1:D1048576 E1">
+  <conditionalFormatting sqref="E1 D1:D1048576">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"F"</formula>
     </cfRule>

--- a/doc/funktionenmatrix.xlsx
+++ b/doc/funktionenmatrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t xml:space="preserve">Aufgabe</t>
   </si>
@@ -79,37 +79,34 @@
     <t xml:space="preserve">Bücher Infos, Genres und Autoren abrufbar machen über JavaFX Interface</t>
   </si>
   <si>
+    <t xml:space="preserve">DHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suche einbinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suche nach Autoren, Buch Infos und Genres</t>
+  </si>
+  <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">DHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suche einbinden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suche nach Autoren, Buch Infos und Genres</t>
-  </si>
-  <si>
     <t xml:space="preserve">Buchtexte einbinden</t>
   </si>
   <si>
     <t xml:space="preserve">Inhalt der Bücher verfügbar und lesbar machen </t>
   </si>
   <si>
+    <t xml:space="preserve">Zahlungssystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zahlungssystem mit virtueller (kostenloser) Währung</t>
+  </si>
+  <si>
     <t xml:space="preserve">O</t>
   </si>
   <si>
-    <t xml:space="preserve">Zahlungssystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zahlungssystem mit virtueller (kostenloser) Währung</t>
-  </si>
-  <si>
     <t xml:space="preserve">Testen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testen lassen</t>
   </si>
   <si>
     <t xml:space="preserve">…</t>
@@ -389,10 +386,10 @@
   <dimension ref="A1:H374"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.84"/>
@@ -493,24 +490,24 @@
         <v>43952</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="2" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>43959</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>12</v>
@@ -524,27 +521,27 @@
         <v>24</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>43971</v>
+        <v>43982</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="2" t="n">
+        <v>43990</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>43983</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>8</v>
@@ -555,16 +552,16 @@
         <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>43992</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
